--- a/03_Analysis_Electrode_Difference/Source_Data/Treatment_Subjekts.xlsx
+++ b/03_Analysis_Electrode_Difference/Source_Data/Treatment_Subjekts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HD_tDCS_IFG" sheetId="1" state="visible" r:id="rId2"/>
@@ -901,6 +901,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -922,12 +923,14 @@
       <color rgb="FF00A933"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF6B5E9B"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -972,7 +975,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -993,19 +996,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1102,18 +1093,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF50"/>
+  <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P49" activeCellId="0" sqref="P49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G51" activeCellId="0" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="13" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="13" style="0" width="11.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1196,18 +1187,18 @@
         <f aca="false">IF(D2=E2,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="4" t="str">
         <f aca="false">IF(K2=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="4" t="str">
         <f aca="false">IF(K2=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="str">
+      <c r="K2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="str">
         <f aca="false">IF(I2=J2,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1259,18 +1250,18 @@
         <f aca="false">IF(D3=E3,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="4" t="str">
         <f aca="false">IF(K3=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="4" t="str">
         <f aca="false">IF(K3=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K3" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="5" t="str">
+      <c r="K3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="str">
         <f aca="false">IF(I3=J3,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1322,18 +1313,18 @@
         <f aca="false">IF(D4=E4,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="4" t="str">
         <f aca="false">IF(K4=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="4" t="str">
         <f aca="false">IF(K4=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="str">
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="str">
         <f aca="false">IF(I4=J4,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1385,18 +1376,18 @@
         <f aca="false">IF(D5=E5,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="4" t="str">
         <f aca="false">IF(K5=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="J5" s="4" t="str">
         <f aca="false">IF(K5=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="str">
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="str">
         <f aca="false">IF(I5=J5,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1448,18 +1439,18 @@
         <f aca="false">IF(D6=E6,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="4" t="str">
         <f aca="false">IF(K6=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <f aca="false">IF(K6=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="str">
+      <c r="K6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="str">
         <f aca="false">IF(I6=J6,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1511,18 +1502,18 @@
         <f aca="false">IF(D7=E7,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="4" t="str">
         <f aca="false">IF(K7=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="4" t="str">
         <f aca="false">IF(K7=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="5" t="str">
+      <c r="K7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4" t="str">
         <f aca="false">IF(I7=J7,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1559,18 +1550,18 @@
         <f aca="false">IF(D8=E8,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="4" t="str">
         <f aca="false">IF(K8=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="J8" s="4" t="str">
         <f aca="false">IF(K8=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K8" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" s="5" t="str">
+      <c r="K8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4" t="str">
         <f aca="false">IF(I8=J8,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1607,18 +1598,18 @@
         <f aca="false">IF(D9=E9,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="4" t="str">
         <f aca="false">IF(K9=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="J9" s="4" t="str">
         <f aca="false">IF(K9=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K9" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5" t="str">
+      <c r="K9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4" t="str">
         <f aca="false">IF(I9=J9,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1672,18 +1663,18 @@
         <f aca="false">IF(D10=E10,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="4" t="str">
         <f aca="false">IF(K10=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J10" s="5" t="str">
+      <c r="J10" s="4" t="str">
         <f aca="false">IF(K10=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5" t="str">
+      <c r="K10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="str">
         <f aca="false">IF(I10=J10,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1735,18 +1726,18 @@
         <f aca="false">IF(D11=E11,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="4" t="str">
         <f aca="false">IF(K11=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J11" s="5" t="str">
+      <c r="J11" s="4" t="str">
         <f aca="false">IF(K11=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="str">
+      <c r="K11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="str">
         <f aca="false">IF(I11=J11,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1798,18 +1789,18 @@
         <f aca="false">IF(D12=E12,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="4" t="str">
         <f aca="false">IF(K12=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J12" s="5" t="str">
+      <c r="J12" s="4" t="str">
         <f aca="false">IF(K12=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K12" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" s="5" t="str">
+      <c r="K12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4" t="str">
         <f aca="false">IF(I12=J12,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1861,18 +1852,18 @@
         <f aca="false">IF(D13=E13,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I13" s="4" t="str">
         <f aca="false">IF(K13=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J13" s="5" t="str">
+      <c r="J13" s="4" t="str">
         <f aca="false">IF(K13=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K13" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" s="5" t="str">
+      <c r="K13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4" t="str">
         <f aca="false">IF(I13=J13,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1924,18 +1915,18 @@
         <f aca="false">IF(D14=E14,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I14" s="4" t="str">
         <f aca="false">IF(K14=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J14" s="5" t="str">
+      <c r="J14" s="4" t="str">
         <f aca="false">IF(K14=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K14" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" s="5" t="str">
+      <c r="K14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4" t="str">
         <f aca="false">IF(I14=J14,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -1987,18 +1978,18 @@
         <f aca="false">IF(D15=E15,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I15" s="4" t="str">
         <f aca="false">IF(K15=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J15" s="5" t="str">
+      <c r="J15" s="4" t="str">
         <f aca="false">IF(K15=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K15" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="5" t="str">
+      <c r="K15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4" t="str">
         <f aca="false">IF(I15=J15,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -2050,18 +2041,18 @@
         <f aca="false">IF(D16=E16,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="4" t="str">
         <f aca="false">IF(K16=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J16" s="5" t="str">
+      <c r="J16" s="4" t="str">
         <f aca="false">IF(K16=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" s="5" t="str">
+      <c r="K16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4" t="str">
         <f aca="false">IF(I16=J16,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -2113,18 +2104,18 @@
         <f aca="false">IF(D17=E17,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I17" s="4" t="str">
         <f aca="false">IF(K17=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J17" s="5" t="str">
+      <c r="J17" s="4" t="str">
         <f aca="false">IF(K17=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="5" t="str">
+      <c r="K17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4" t="str">
         <f aca="false">IF(I17=J17,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -2156,18 +2147,18 @@
         <f aca="false">IF(D18=E18,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="4" t="str">
         <f aca="false">IF(K18=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J18" s="5" t="str">
+      <c r="J18" s="4" t="str">
         <f aca="false">IF(K18=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K18" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" s="5" t="str">
+      <c r="K18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4" t="str">
         <f aca="false">IF(I18=J18,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -2199,18 +2190,18 @@
         <f aca="false">IF(D19=E19,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I19" s="4" t="str">
         <f aca="false">IF(K19=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J19" s="5" t="str">
+      <c r="J19" s="4" t="str">
         <f aca="false">IF(K19=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K19" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" s="5" t="str">
+      <c r="K19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4" t="str">
         <f aca="false">IF(I19=J19,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -2242,18 +2233,18 @@
         <f aca="false">IF(D20=E20,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I20" s="4" t="str">
         <f aca="false">IF(K20=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J20" s="5" t="str">
+      <c r="J20" s="4" t="str">
         <f aca="false">IF(K20=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5" t="str">
+      <c r="K20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4" t="str">
         <f aca="false">IF(I20=J20,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -2285,18 +2276,18 @@
         <f aca="false">IF(D21=E21,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="I21" s="4" t="str">
         <f aca="false">IF(K21=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J21" s="5" t="str">
+      <c r="J21" s="4" t="str">
         <f aca="false">IF(K21=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5" t="str">
+      <c r="K21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="str">
         <f aca="false">IF(I21=J21,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -2328,18 +2319,18 @@
         <f aca="false">IF(D22=E22,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="4" t="str">
         <f aca="false">IF(K22=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J22" s="5" t="str">
+      <c r="J22" s="4" t="str">
         <f aca="false">IF(K22=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K22" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" s="5" t="str">
+      <c r="K22" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="4" t="str">
         <f aca="false">IF(I22=J22,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -2371,18 +2362,18 @@
         <f aca="false">IF(D23=E23,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="I23" s="4" t="str">
         <f aca="false">IF(K23=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J23" s="5" t="str">
+      <c r="J23" s="4" t="str">
         <f aca="false">IF(K23=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5" t="str">
+      <c r="K23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="str">
         <f aca="false">IF(I23=J23,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -2415,8 +2406,8 @@
       <c r="J24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -2446,8 +2437,8 @@
       <c r="J25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -2477,8 +2468,8 @@
       <c r="J26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -2508,8 +2499,8 @@
       <c r="J27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -2539,8 +2530,8 @@
       <c r="J28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -2570,8 +2561,8 @@
       <c r="J29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -2601,8 +2592,8 @@
       <c r="J30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -2632,8 +2623,8 @@
       <c r="J31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -2663,8 +2654,8 @@
       <c r="J32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -2694,8 +2685,8 @@
       <c r="J33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -2725,8 +2716,8 @@
       <c r="J34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -2756,8 +2747,8 @@
       <c r="J35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -2787,8 +2778,8 @@
       <c r="J36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -2818,8 +2809,8 @@
       <c r="J37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -2849,8 +2840,8 @@
       <c r="J38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -2880,8 +2871,8 @@
       <c r="J39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -2911,8 +2902,8 @@
       <c r="J40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -2942,8 +2933,8 @@
       <c r="J41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -2973,8 +2964,8 @@
       <c r="J42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -3004,8 +2995,8 @@
       <c r="J43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
       <c r="P43" s="0" t="s">
         <v>102</v>
       </c>
@@ -3038,8 +3029,8 @@
       <c r="J44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -3069,7 +3060,7 @@
       <c r="J45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K45" s="6"/>
+      <c r="K45" s="5"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3092,28 +3083,28 @@
       <c r="AE45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="8" t="n">
+      <c r="B46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="D46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="4" t="str">
         <f aca="false">IF(D46=E46,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>63</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -3121,33 +3112,33 @@
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="6"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="7"/>
+      <c r="O46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="8" t="n">
+      <c r="B47" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="D47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="4" t="str">
         <f aca="false">IF(D47=E47,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>63</v>
       </c>
       <c r="J47" s="4" t="s">
@@ -3155,33 +3146,33 @@
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="7"/>
+      <c r="M47" s="6"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="7"/>
+      <c r="O47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="8" t="n">
+      <c r="B48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
       <c r="H48" s="4" t="str">
         <f aca="false">IF(D48=E48,"error","correct")</f>
         <v>correct</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="6" t="s">
         <v>63</v>
       </c>
       <c r="J48" s="4" t="s">
@@ -3189,31 +3180,31 @@
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="7"/>
+      <c r="M48" s="6"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="7"/>
+      <c r="O48" s="6"/>
       <c r="P48" s="0" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="8" t="n">
+      <c r="B49" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="D49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="4" t="str">
         <f aca="false">IF(D49=E49,"error","correct")</f>
         <v>correct</v>
@@ -3221,14 +3212,14 @@
       <c r="I49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="6" t="s">
         <v>63</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="7"/>
+      <c r="M49" s="6"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="7"/>
+      <c r="O49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3245,7 +3236,7 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.7875" bottom="0.7875" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -3259,18 +3250,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE46"/>
+  <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="13" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="13" style="0" width="11.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3351,18 +3342,18 @@
         <f aca="false">IF(G2=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="4" t="str">
         <f aca="false">IF(K2=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="4" t="str">
         <f aca="false">IF(K2=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="str">
+      <c r="K2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="str">
         <f aca="false">IF(I2=J2,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3393,18 +3384,18 @@
         <f aca="false">IF(G3=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="4" t="str">
         <f aca="false">IF(K3=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="4" t="str">
         <f aca="false">IF(K3=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="str">
+      <c r="K3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="str">
         <f aca="false">IF(I3=J3,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3435,18 +3426,18 @@
         <f aca="false">IF(G4=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="4" t="str">
         <f aca="false">IF(K4=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="4" t="str">
         <f aca="false">IF(K4=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="str">
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="str">
         <f aca="false">IF(I4=J4,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3477,18 +3468,18 @@
         <f aca="false">IF(G5=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="4" t="str">
         <f aca="false">IF(K5=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="J5" s="4" t="str">
         <f aca="false">IF(K5=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K5" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5" t="str">
+      <c r="K5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="str">
         <f aca="false">IF(I5=J5,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3519,18 +3510,18 @@
         <f aca="false">IF(G6=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="4" t="str">
         <f aca="false">IF(K6=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <f aca="false">IF(K6=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="5" t="str">
+      <c r="K6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="str">
         <f aca="false">IF(I6=J6,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3561,18 +3552,18 @@
         <f aca="false">IF(G7=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="4" t="str">
         <f aca="false">IF(K7=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="4" t="str">
         <f aca="false">IF(K7=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="5" t="str">
+      <c r="K7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4" t="str">
         <f aca="false">IF(I7=J7,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3603,18 +3594,18 @@
         <f aca="false">IF(G8=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="4" t="str">
         <f aca="false">IF(K8=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="J8" s="4" t="str">
         <f aca="false">IF(K8=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K8" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" s="5" t="str">
+      <c r="K8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4" t="str">
         <f aca="false">IF(I8=J8,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3645,18 +3636,18 @@
         <f aca="false">IF(G9=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="4" t="str">
         <f aca="false">IF(K9=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="J9" s="4" t="str">
         <f aca="false">IF(K9=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="str">
+      <c r="K9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="str">
         <f aca="false">IF(I9=J9,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3687,18 +3678,18 @@
         <f aca="false">IF(G10=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="4" t="str">
         <f aca="false">IF(K10=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J10" s="5" t="str">
+      <c r="J10" s="4" t="str">
         <f aca="false">IF(K10=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" s="5" t="str">
+      <c r="K10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4" t="str">
         <f aca="false">IF(I10=J10,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3729,18 +3720,18 @@
         <f aca="false">IF(G11=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="4" t="str">
         <f aca="false">IF(K11=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J11" s="5" t="str">
+      <c r="J11" s="4" t="str">
         <f aca="false">IF(K11=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="str">
+      <c r="K11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="str">
         <f aca="false">IF(I11=J11,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3771,18 +3762,18 @@
         <f aca="false">IF(G12=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="4" t="str">
         <f aca="false">IF(K12=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J12" s="5" t="str">
+      <c r="J12" s="4" t="str">
         <f aca="false">IF(K12=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K12" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" s="5" t="str">
+      <c r="K12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4" t="str">
         <f aca="false">IF(I12=J12,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3813,16 +3804,16 @@
         <f aca="false">IF(G13=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5" t="str">
+      <c r="I13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="str">
         <f aca="false">IF(I13=J13,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3865,17 +3856,17 @@
         <f aca="false">IF(G14=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="5" t="str">
+      <c r="I14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="4" t="str">
         <f aca="false">IF(K14=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="str">
+      <c r="K14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="str">
         <f aca="false">IF(I14=J14,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3906,18 +3897,18 @@
         <f aca="false">IF(G15=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I15" s="4" t="str">
         <f aca="false">IF(K15=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J15" s="5" t="str">
+      <c r="J15" s="4" t="str">
         <f aca="false">IF(K15=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K15" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="5" t="str">
+      <c r="K15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4" t="str">
         <f aca="false">IF(I15=J15,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3948,18 +3939,18 @@
         <f aca="false">IF(G16=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="4" t="str">
         <f aca="false">IF(K16=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J16" s="5" t="str">
+      <c r="J16" s="4" t="str">
         <f aca="false">IF(K16=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" s="5" t="str">
+      <c r="K16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4" t="str">
         <f aca="false">IF(I16=J16,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -3990,27 +3981,27 @@
         <f aca="false">IF(G17=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="5" t="str">
+      <c r="I17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4" t="str">
         <f aca="false">IF(I17=J17,"error","correct")</f>
         <v>correct</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="5" t="str">
+      <c r="N17" s="4" t="str">
         <f aca="false">IF(P17=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="O17" s="5" t="str">
+      <c r="O17" s="4" t="str">
         <f aca="false">IF(P17=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
@@ -4044,18 +4035,18 @@
         <f aca="false">IF(G18=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="4" t="str">
         <f aca="false">IF(K18=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J18" s="5" t="str">
+      <c r="J18" s="4" t="str">
         <f aca="false">IF(K18=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5" t="str">
+      <c r="K18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="str">
         <f aca="false">IF(I18=J18,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -4086,18 +4077,18 @@
         <f aca="false">IF(G19=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I19" s="4" t="str">
         <f aca="false">IF(K19=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J19" s="5" t="str">
+      <c r="J19" s="4" t="str">
         <f aca="false">IF(K19=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5" t="str">
+      <c r="K19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4" t="str">
         <f aca="false">IF(I19=J19,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -4128,18 +4119,18 @@
         <f aca="false">IF(G20=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I20" s="4" t="str">
         <f aca="false">IF(K20=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J20" s="5" t="str">
+      <c r="J20" s="4" t="str">
         <f aca="false">IF(K20=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K20" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" s="5" t="str">
+      <c r="K20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4" t="str">
         <f aca="false">IF(I20=J20,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -4170,18 +4161,18 @@
         <f aca="false">IF(G21=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="I21" s="4" t="str">
         <f aca="false">IF(K21=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J21" s="5" t="str">
+      <c r="J21" s="4" t="str">
         <f aca="false">IF(K21=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5" t="str">
+      <c r="K21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="str">
         <f aca="false">IF(I21=J21,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -4212,18 +4203,18 @@
         <f aca="false">IF(G22=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="4" t="str">
         <f aca="false">IF(K22=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J22" s="5" t="str">
+      <c r="J22" s="4" t="str">
         <f aca="false">IF(K22=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K22" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" s="5" t="str">
+      <c r="K22" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="4" t="str">
         <f aca="false">IF(I22=J22,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -4254,18 +4245,18 @@
         <f aca="false">IF(G23=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="I23" s="4" t="str">
         <f aca="false">IF(K23=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J23" s="5" t="str">
+      <c r="J23" s="4" t="str">
         <f aca="false">IF(K23=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5" t="str">
+      <c r="K23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="str">
         <f aca="false">IF(I23=J23,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -4289,14 +4280,14 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="I24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -4317,14 +4308,14 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="I25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -4345,14 +4336,14 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="I26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -4373,14 +4364,14 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="I27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -4401,14 +4392,14 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="I28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -4429,14 +4420,14 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="I29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -4457,14 +4448,14 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="I30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -4485,14 +4476,14 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="I31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -4513,14 +4504,14 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="I32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -4541,14 +4532,14 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="I33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -4569,14 +4560,14 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="I34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -4597,14 +4588,14 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="I35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -4625,14 +4616,14 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="I36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -4653,14 +4644,14 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="I37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -4681,14 +4672,14 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="I38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -4709,14 +4700,14 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="I39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -4737,14 +4728,14 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="I40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -4765,14 +4756,14 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="I41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -4793,14 +4784,14 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="I42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -4821,14 +4812,14 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="I43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -4849,14 +4840,14 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="I44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -4923,7 +4914,7 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.7875" bottom="0.7875" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -4937,18 +4928,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE46"/>
+  <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="13" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="13" style="0" width="11.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5029,18 +5020,18 @@
         <f aca="false">IF(G2=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="4" t="str">
         <f aca="false">IF(K2=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="4" t="str">
         <f aca="false">IF(K2=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K2" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5" t="str">
+      <c r="K2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="str">
         <f aca="false">IF(I2=J2,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5071,18 +5062,18 @@
         <f aca="false">IF(G3=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="4" t="str">
         <f aca="false">IF(K3=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="4" t="str">
         <f aca="false">IF(K3=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K3" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="5" t="str">
+      <c r="K3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="str">
         <f aca="false">IF(I3=J3,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5113,18 +5104,18 @@
         <f aca="false">IF(G4=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="4" t="str">
         <f aca="false">IF(K4=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="4" t="str">
         <f aca="false">IF(K4=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="str">
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="str">
         <f aca="false">IF(I4=J4,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5155,18 +5146,18 @@
         <f aca="false">IF(G5=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="4" t="str">
         <f aca="false">IF(K5=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="J5" s="4" t="str">
         <f aca="false">IF(K5=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="str">
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="str">
         <f aca="false">IF(I5=J5,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5197,18 +5188,18 @@
         <f aca="false">IF(G6=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="4" t="str">
         <f aca="false">IF(K6=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <f aca="false">IF(K6=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="str">
+      <c r="K6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="str">
         <f aca="false">IF(I6=J6,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5239,18 +5230,18 @@
         <f aca="false">IF(G7=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="4" t="str">
         <f aca="false">IF(K7=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="4" t="str">
         <f aca="false">IF(K7=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="5" t="str">
+      <c r="K7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4" t="str">
         <f aca="false">IF(I7=J7,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5284,18 +5275,18 @@
         <f aca="false">IF(G8=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="4" t="str">
         <f aca="false">IF(K8=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="J8" s="4" t="str">
         <f aca="false">IF(K8=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="str">
+      <c r="K8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="str">
         <f aca="false">IF(I8=J8,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5329,18 +5320,18 @@
         <f aca="false">IF(G9=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="4" t="str">
         <f aca="false">IF(K9=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="J9" s="4" t="str">
         <f aca="false">IF(K9=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K9" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5" t="str">
+      <c r="K9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4" t="str">
         <f aca="false">IF(I9=J9,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5371,18 +5362,18 @@
         <f aca="false">IF(G10=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="4" t="str">
         <f aca="false">IF(K10=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J10" s="5" t="str">
+      <c r="J10" s="4" t="str">
         <f aca="false">IF(K10=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5" t="str">
+      <c r="K10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="str">
         <f aca="false">IF(I10=J10,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5413,18 +5404,18 @@
         <f aca="false">IF(G11=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="4" t="str">
         <f aca="false">IF(K11=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J11" s="5" t="str">
+      <c r="J11" s="4" t="str">
         <f aca="false">IF(K11=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="str">
+      <c r="K11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="str">
         <f aca="false">IF(I11=J11,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5455,18 +5446,18 @@
         <f aca="false">IF(G12=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="4" t="str">
         <f aca="false">IF(K12=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J12" s="5" t="str">
+      <c r="J12" s="4" t="str">
         <f aca="false">IF(K12=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K12" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" s="5" t="str">
+      <c r="K12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4" t="str">
         <f aca="false">IF(I12=J12,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5497,18 +5488,18 @@
         <f aca="false">IF(G13=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I13" s="4" t="str">
         <f aca="false">IF(K13=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J13" s="5" t="str">
+      <c r="J13" s="4" t="str">
         <f aca="false">IF(K13=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K13" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" s="5" t="str">
+      <c r="K13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4" t="str">
         <f aca="false">IF(I13=J13,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5539,18 +5530,18 @@
         <f aca="false">IF(G14=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I14" s="4" t="str">
         <f aca="false">IF(K14=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J14" s="5" t="str">
+      <c r="J14" s="4" t="str">
         <f aca="false">IF(K14=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="str">
+      <c r="K14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="str">
         <f aca="false">IF(I14=J14,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5581,18 +5572,18 @@
         <f aca="false">IF(G15=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I15" s="4" t="str">
         <f aca="false">IF(K15=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J15" s="5" t="str">
+      <c r="J15" s="4" t="str">
         <f aca="false">IF(K15=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K15" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="5" t="str">
+      <c r="K15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4" t="str">
         <f aca="false">IF(I15=J15,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5623,18 +5614,18 @@
         <f aca="false">IF(G16=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="4" t="str">
         <f aca="false">IF(K16=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J16" s="5" t="str">
+      <c r="J16" s="4" t="str">
         <f aca="false">IF(K16=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" s="5" t="str">
+      <c r="K16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4" t="str">
         <f aca="false">IF(I16=J16,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5665,18 +5656,18 @@
         <f aca="false">IF(G17=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I17" s="4" t="str">
         <f aca="false">IF(K17=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J17" s="5" t="str">
+      <c r="J17" s="4" t="str">
         <f aca="false">IF(K17=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="5" t="str">
+      <c r="K17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4" t="str">
         <f aca="false">IF(I17=J17,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5707,18 +5698,18 @@
         <f aca="false">IF(G18=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="4" t="str">
         <f aca="false">IF(K18=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J18" s="5" t="str">
+      <c r="J18" s="4" t="str">
         <f aca="false">IF(K18=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5" t="str">
+      <c r="K18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="str">
         <f aca="false">IF(I18=J18,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5749,18 +5740,18 @@
         <f aca="false">IF(G19=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I19" s="4" t="str">
         <f aca="false">IF(K19=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J19" s="5" t="str">
+      <c r="J19" s="4" t="str">
         <f aca="false">IF(K19=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K19" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" s="5" t="str">
+      <c r="K19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4" t="str">
         <f aca="false">IF(I19=J19,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5791,18 +5782,18 @@
         <f aca="false">IF(G20=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I20" s="4" t="str">
         <f aca="false">IF(K20=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J20" s="5" t="str">
+      <c r="J20" s="4" t="str">
         <f aca="false">IF(K20=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5" t="str">
+      <c r="K20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4" t="str">
         <f aca="false">IF(I20=J20,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5833,18 +5824,18 @@
         <f aca="false">IF(G21=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="I21" s="4" t="str">
         <f aca="false">IF(K21=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J21" s="5" t="str">
+      <c r="J21" s="4" t="str">
         <f aca="false">IF(K21=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K21" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" s="5" t="str">
+      <c r="K21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4" t="str">
         <f aca="false">IF(I21=J21,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5875,18 +5866,18 @@
         <f aca="false">IF(G22=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="4" t="str">
         <f aca="false">IF(K22=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J22" s="5" t="str">
+      <c r="J22" s="4" t="str">
         <f aca="false">IF(K22=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5" t="str">
+      <c r="K22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4" t="str">
         <f aca="false">IF(I22=J22,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5917,18 +5908,18 @@
         <f aca="false">IF(G23=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="I23" s="4" t="str">
         <f aca="false">IF(K23=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J23" s="5" t="str">
+      <c r="J23" s="4" t="str">
         <f aca="false">IF(K23=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5" t="str">
+      <c r="K23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="str">
         <f aca="false">IF(I23=J23,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -5952,14 +5943,14 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="I24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -5980,14 +5971,14 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="I25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -6008,14 +5999,14 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="I26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -6036,14 +6027,14 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="I27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -6064,14 +6055,14 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="I28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -6092,14 +6083,14 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="I29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -6120,14 +6111,14 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="I30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -6148,14 +6139,14 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="I31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -6176,14 +6167,14 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="I32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -6204,14 +6195,14 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="I33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -6232,14 +6223,14 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="I34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -6260,14 +6251,14 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="I35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -6288,14 +6279,14 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="I36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -6316,14 +6307,14 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="I37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -6344,14 +6335,14 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="I38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -6372,14 +6363,14 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="I39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -6400,14 +6391,14 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="I40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -6428,14 +6419,14 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="I41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -6456,14 +6447,14 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="I42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -6484,14 +6475,14 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="I43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -6512,14 +6503,14 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="I44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -6540,14 +6531,14 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="I45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6568,7 +6559,7 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.7875" bottom="0.7875" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -6582,18 +6573,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="13" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="13" style="0" width="11.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6677,18 +6668,18 @@
         <f aca="false">IF(G2=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="4" t="str">
         <f aca="false">IF(K2=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="4" t="str">
         <f aca="false">IF(K2=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K2" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5" t="str">
+      <c r="K2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="str">
         <f aca="false">IF(I2=J2,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -6719,18 +6710,18 @@
         <f aca="false">IF(G3=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="4" t="str">
         <f aca="false">IF(K3=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="4" t="str">
         <f aca="false">IF(K3=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K3" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="5" t="str">
+      <c r="K3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="str">
         <f aca="false">IF(I3=J3,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -6761,18 +6752,18 @@
         <f aca="false">IF(G4=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="4" t="str">
         <f aca="false">IF(K4=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="4" t="str">
         <f aca="false">IF(K4=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="str">
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="str">
         <f aca="false">IF(I4=J4,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -6803,18 +6794,18 @@
         <f aca="false">IF(G5=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="4" t="str">
         <f aca="false">IF(K5=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="J5" s="4" t="str">
         <f aca="false">IF(K5=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="str">
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="str">
         <f aca="false">IF(I5=J5,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -6845,18 +6836,18 @@
         <f aca="false">IF(G6=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="4" t="str">
         <f aca="false">IF(K6=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <f aca="false">IF(K6=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="5" t="str">
+      <c r="K6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="str">
         <f aca="false">IF(I6=J6,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -6887,18 +6878,18 @@
         <f aca="false">IF(G7=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="4" t="str">
         <f aca="false">IF(K7=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="4" t="str">
         <f aca="false">IF(K7=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="5" t="str">
+      <c r="K7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4" t="str">
         <f aca="false">IF(I7=J7,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -6929,18 +6920,18 @@
         <f aca="false">IF(G8=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="4" t="str">
         <f aca="false">IF(K8=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="J8" s="4" t="str">
         <f aca="false">IF(K8=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K8" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" s="5" t="str">
+      <c r="K8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4" t="str">
         <f aca="false">IF(I8=J8,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -6971,18 +6962,18 @@
         <f aca="false">IF(G9=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="4" t="str">
         <f aca="false">IF(K9=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="J9" s="4" t="str">
         <f aca="false">IF(K9=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="str">
+      <c r="K9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="str">
         <f aca="false">IF(I9=J9,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7013,18 +7004,18 @@
         <f aca="false">IF(G10=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="4" t="str">
         <f aca="false">IF(K10=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J10" s="5" t="str">
+      <c r="J10" s="4" t="str">
         <f aca="false">IF(K10=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5" t="str">
+      <c r="K10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="str">
         <f aca="false">IF(I10=J10,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7055,18 +7046,18 @@
         <f aca="false">IF(G11=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="4" t="str">
         <f aca="false">IF(K11=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J11" s="5" t="str">
+      <c r="J11" s="4" t="str">
         <f aca="false">IF(K11=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" s="5" t="str">
+      <c r="K11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4" t="str">
         <f aca="false">IF(I11=J11,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7097,18 +7088,18 @@
         <f aca="false">IF(G12=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="4" t="str">
         <f aca="false">IF(K12=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J12" s="5" t="str">
+      <c r="J12" s="4" t="str">
         <f aca="false">IF(K12=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K12" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5" t="str">
+      <c r="K12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="str">
         <f aca="false">IF(I12=J12,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7139,18 +7130,18 @@
         <f aca="false">IF(G13=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I13" s="4" t="str">
         <f aca="false">IF(K13=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J13" s="5" t="str">
+      <c r="J13" s="4" t="str">
         <f aca="false">IF(K13=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5" t="str">
+      <c r="K13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="str">
         <f aca="false">IF(I13=J13,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7181,18 +7172,18 @@
         <f aca="false">IF(G14=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I14" s="4" t="str">
         <f aca="false">IF(K14=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J14" s="5" t="str">
+      <c r="J14" s="4" t="str">
         <f aca="false">IF(K14=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K14" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" s="5" t="str">
+      <c r="K14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4" t="str">
         <f aca="false">IF(I14=J14,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7223,18 +7214,18 @@
         <f aca="false">IF(G15=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I15" s="4" t="str">
         <f aca="false">IF(K15=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J15" s="5" t="str">
+      <c r="J15" s="4" t="str">
         <f aca="false">IF(K15=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5" t="str">
+      <c r="K15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4" t="str">
         <f aca="false">IF(I15=J15,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7265,18 +7256,18 @@
         <f aca="false">IF(G16=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="4" t="str">
         <f aca="false">IF(K16=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J16" s="5" t="str">
+      <c r="J16" s="4" t="str">
         <f aca="false">IF(K16=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5" t="str">
+      <c r="K16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4" t="str">
         <f aca="false">IF(I16=J16,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7307,18 +7298,18 @@
         <f aca="false">IF(G17=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I17" s="4" t="str">
         <f aca="false">IF(K17=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J17" s="5" t="str">
+      <c r="J17" s="4" t="str">
         <f aca="false">IF(K17=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="5" t="str">
+      <c r="K17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4" t="str">
         <f aca="false">IF(I17=J17,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7349,18 +7340,18 @@
         <f aca="false">IF(G18=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="4" t="str">
         <f aca="false">IF(K18=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J18" s="5" t="str">
+      <c r="J18" s="4" t="str">
         <f aca="false">IF(K18=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K18" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" s="5" t="str">
+      <c r="K18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4" t="str">
         <f aca="false">IF(I18=J18,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7391,18 +7382,18 @@
         <f aca="false">IF(G19=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I19" s="4" t="str">
         <f aca="false">IF(K19=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J19" s="5" t="str">
+      <c r="J19" s="4" t="str">
         <f aca="false">IF(K19=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5" t="str">
+      <c r="K19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4" t="str">
         <f aca="false">IF(I19=J19,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7433,18 +7424,18 @@
         <f aca="false">IF(G20=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I20" s="4" t="str">
         <f aca="false">IF(K20=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J20" s="5" t="str">
+      <c r="J20" s="4" t="str">
         <f aca="false">IF(K20=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K20" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" s="5" t="str">
+      <c r="K20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4" t="str">
         <f aca="false">IF(I20=J20,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7475,18 +7466,18 @@
         <f aca="false">IF(G21=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="I21" s="4" t="str">
         <f aca="false">IF(K21=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J21" s="5" t="str">
+      <c r="J21" s="4" t="str">
         <f aca="false">IF(K21=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5" t="str">
+      <c r="K21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="str">
         <f aca="false">IF(I21=J21,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7517,18 +7508,18 @@
         <f aca="false">IF(G22=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="4" t="str">
         <f aca="false">IF(K22=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J22" s="5" t="str">
+      <c r="J22" s="4" t="str">
         <f aca="false">IF(K22=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
-      <c r="K22" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" s="5" t="str">
+      <c r="K22" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="4" t="str">
         <f aca="false">IF(I22=J22,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7559,18 +7550,18 @@
         <f aca="false">IF(G23=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="I23" s="4" t="str">
         <f aca="false">IF(K23=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J23" s="5" t="str">
+      <c r="J23" s="4" t="str">
         <f aca="false">IF(K23=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
-      <c r="K23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5" t="str">
+      <c r="K23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="str">
         <f aca="false">IF(I23=J23,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -7594,14 +7585,14 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="I24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -7622,14 +7613,14 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="I25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -7650,14 +7641,14 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="I26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -7678,14 +7669,14 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="I27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -7706,14 +7697,14 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="I28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -7734,14 +7725,14 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="I29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -7762,14 +7753,14 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="I30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -7790,14 +7781,14 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="I31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -7818,14 +7809,14 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="I32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -7846,14 +7837,14 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="I33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -7874,14 +7865,14 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="I34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -7902,14 +7893,14 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="I35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -7930,14 +7921,14 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="I36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -7958,14 +7949,14 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="I37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -7986,14 +7977,14 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="I38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -8014,14 +8005,14 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="I39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -8042,14 +8033,14 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="I40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -8070,14 +8061,14 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="I41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -8098,14 +8089,14 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="I42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -8126,14 +8117,14 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="I43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -8154,14 +8145,14 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="I44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -8182,14 +8173,14 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="I45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -8298,7 +8289,7 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.7875" bottom="0.7875" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -8318,9 +8309,9 @@
       <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8362,7 +8353,7 @@
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>259</v>
       </c>
       <c r="D2" s="0" t="str">
@@ -8373,29 +8364,29 @@
         <f aca="false">IF(H2="B","Kopf","Zahl")</f>
         <v>Zahl</v>
       </c>
-      <c r="F2" s="10" t="str">
+      <c r="F2" s="7" t="str">
         <f aca="false">IF(H2="A","KopfZahl","ZahlKopf")</f>
         <v>KopfZahl</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="10" t="str">
+      <c r="H2" s="7" t="str">
         <f aca="false">IF(G2=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I2" s="11" t="str">
+      <c r="I2" s="8" t="str">
         <f aca="false">IF(K2=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J2" s="11" t="str">
+      <c r="J2" s="8" t="str">
         <f aca="false">IF(K2=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="11" t="str">
+      <c r="L2" s="8" t="str">
         <f aca="false">IF(I2=J2,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8407,7 +8398,7 @@
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>260</v>
       </c>
       <c r="D3" s="0" t="str">
@@ -8418,29 +8409,29 @@
         <f aca="false">IF(H3="B","Kopf","Zahl")</f>
         <v>Zahl</v>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="7" t="str">
         <f aca="false">IF(H3="A","KopfZahl","ZahlKopf")</f>
         <v>KopfZahl</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="10" t="str">
+      <c r="H3" s="7" t="str">
         <f aca="false">IF(G3=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I3" s="11" t="str">
+      <c r="I3" s="8" t="str">
         <f aca="false">IF(K3=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J3" s="11" t="str">
+      <c r="J3" s="8" t="str">
         <f aca="false">IF(K3=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="11" t="str">
+      <c r="L3" s="8" t="str">
         <f aca="false">IF(I3=J3,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8452,7 +8443,7 @@
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>261</v>
       </c>
       <c r="D4" s="0" t="str">
@@ -8463,29 +8454,29 @@
         <f aca="false">IF(H4="B","Kopf","Zahl")</f>
         <v>Kopf</v>
       </c>
-      <c r="F4" s="10" t="str">
+      <c r="F4" s="7" t="str">
         <f aca="false">IF(H4="A","KopfZahl","ZahlKopf")</f>
         <v>ZahlKopf</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="10" t="str">
+      <c r="H4" s="7" t="str">
         <f aca="false">IF(G4=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I4" s="11" t="str">
+      <c r="I4" s="8" t="str">
         <f aca="false">IF(K4=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J4" s="11" t="str">
+      <c r="J4" s="8" t="str">
         <f aca="false">IF(K4=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="11" t="str">
+      <c r="L4" s="8" t="str">
         <f aca="false">IF(I4=J4,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8497,7 +8488,7 @@
       <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>262</v>
       </c>
       <c r="D5" s="0" t="str">
@@ -8508,29 +8499,29 @@
         <f aca="false">IF(H5="B","Kopf","Zahl")</f>
         <v>Kopf</v>
       </c>
-      <c r="F5" s="10" t="str">
+      <c r="F5" s="7" t="str">
         <f aca="false">IF(H5="A","KopfZahl","ZahlKopf")</f>
         <v>ZahlKopf</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="10" t="str">
+      <c r="H5" s="7" t="str">
         <f aca="false">IF(G5=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I5" s="11" t="str">
+      <c r="I5" s="8" t="str">
         <f aca="false">IF(K5=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J5" s="11" t="str">
+      <c r="J5" s="8" t="str">
         <f aca="false">IF(K5=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="11" t="str">
+      <c r="L5" s="8" t="str">
         <f aca="false">IF(I5=J5,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8542,7 +8533,7 @@
       <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>263</v>
       </c>
       <c r="D6" s="0" t="str">
@@ -8553,29 +8544,29 @@
         <f aca="false">IF(H6="B","Kopf","Zahl")</f>
         <v>Zahl</v>
       </c>
-      <c r="F6" s="10" t="str">
+      <c r="F6" s="7" t="str">
         <f aca="false">IF(H6="A","KopfZahl","ZahlKopf")</f>
         <v>KopfZahl</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="10" t="str">
+      <c r="H6" s="7" t="str">
         <f aca="false">IF(G6=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I6" s="11" t="str">
+      <c r="I6" s="8" t="str">
         <f aca="false">IF(K6=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J6" s="11" t="str">
+      <c r="J6" s="8" t="str">
         <f aca="false">IF(K6=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="11" t="str">
+      <c r="L6" s="8" t="str">
         <f aca="false">IF(I6=J6,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8587,7 +8578,7 @@
       <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>264</v>
       </c>
       <c r="D7" s="0" t="str">
@@ -8598,29 +8589,29 @@
         <f aca="false">IF(H7="B","Kopf","Zahl")</f>
         <v>Kopf</v>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F7" s="7" t="str">
         <f aca="false">IF(H7="A","KopfZahl","ZahlKopf")</f>
         <v>ZahlKopf</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="H7" s="7" t="str">
         <f aca="false">IF(G7=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I7" s="11" t="str">
+      <c r="I7" s="8" t="str">
         <f aca="false">IF(K7=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J7" s="11" t="str">
+      <c r="J7" s="8" t="str">
         <f aca="false">IF(K7=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="8" t="str">
         <f aca="false">IF(I7=J7,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8632,7 +8623,7 @@
       <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>265</v>
       </c>
       <c r="D8" s="0" t="str">
@@ -8643,29 +8634,29 @@
         <f aca="false">IF(H8="B","Kopf","Zahl")</f>
         <v>Zahl</v>
       </c>
-      <c r="F8" s="10" t="str">
+      <c r="F8" s="7" t="str">
         <f aca="false">IF(H8="A","KopfZahl","ZahlKopf")</f>
         <v>KopfZahl</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H8" s="7" t="str">
         <f aca="false">IF(G8=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="I8" s="8" t="str">
         <f aca="false">IF(K8=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J8" s="11" t="str">
+      <c r="J8" s="8" t="str">
         <f aca="false">IF(K8=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L8" s="8" t="str">
         <f aca="false">IF(I8=J8,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8677,7 +8668,7 @@
       <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>266</v>
       </c>
       <c r="D9" s="0" t="str">
@@ -8688,29 +8679,29 @@
         <f aca="false">IF(H9="B","Kopf","Zahl")</f>
         <v>Kopf</v>
       </c>
-      <c r="F9" s="10" t="str">
+      <c r="F9" s="7" t="str">
         <f aca="false">IF(H9="A","KopfZahl","ZahlKopf")</f>
         <v>ZahlKopf</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H9" s="7" t="str">
         <f aca="false">IF(G9=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I9" s="11" t="str">
+      <c r="I9" s="8" t="str">
         <f aca="false">IF(K9=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J9" s="11" t="str">
+      <c r="J9" s="8" t="str">
         <f aca="false">IF(K9=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L9" s="11" t="str">
+      <c r="L9" s="8" t="str">
         <f aca="false">IF(I9=J9,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8722,7 +8713,7 @@
       <c r="B10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>267</v>
       </c>
       <c r="D10" s="0" t="str">
@@ -8733,29 +8724,29 @@
         <f aca="false">IF(H10="B","Kopf","Zahl")</f>
         <v>Zahl</v>
       </c>
-      <c r="F10" s="10" t="str">
+      <c r="F10" s="7" t="str">
         <f aca="false">IF(H10="A","KopfZahl","ZahlKopf")</f>
         <v>KopfZahl</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="10" t="str">
+      <c r="H10" s="7" t="str">
         <f aca="false">IF(G10=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I10" s="11" t="str">
+      <c r="I10" s="8" t="str">
         <f aca="false">IF(K10=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J10" s="11" t="str">
+      <c r="J10" s="8" t="str">
         <f aca="false">IF(K10=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="11" t="str">
+      <c r="L10" s="8" t="str">
         <f aca="false">IF(I10=J10,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8767,7 +8758,7 @@
       <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>268</v>
       </c>
       <c r="D11" s="0" t="str">
@@ -8778,29 +8769,29 @@
         <f aca="false">IF(H11="B","Kopf","Zahl")</f>
         <v>Kopf</v>
       </c>
-      <c r="F11" s="10" t="str">
+      <c r="F11" s="7" t="str">
         <f aca="false">IF(H11="A","KopfZahl","ZahlKopf")</f>
         <v>ZahlKopf</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="10" t="str">
+      <c r="H11" s="7" t="str">
         <f aca="false">IF(G11=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I11" s="11" t="str">
+      <c r="I11" s="8" t="str">
         <f aca="false">IF(K11=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J11" s="11" t="str">
+      <c r="J11" s="8" t="str">
         <f aca="false">IF(K11=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="11" t="str">
+      <c r="L11" s="8" t="str">
         <f aca="false">IF(I11=J11,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8812,7 +8803,7 @@
       <c r="B12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>269</v>
       </c>
       <c r="D12" s="0" t="str">
@@ -8823,29 +8814,29 @@
         <f aca="false">IF(H12="B","Kopf","Zahl")</f>
         <v>Kopf</v>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="7" t="str">
         <f aca="false">IF(H12="A","KopfZahl","ZahlKopf")</f>
         <v>ZahlKopf</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="10" t="str">
+      <c r="H12" s="7" t="str">
         <f aca="false">IF(G12=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I12" s="11" t="str">
+      <c r="I12" s="8" t="str">
         <f aca="false">IF(K12=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J12" s="11" t="str">
+      <c r="J12" s="8" t="str">
         <f aca="false">IF(K12=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L12" s="11" t="str">
+      <c r="L12" s="8" t="str">
         <f aca="false">IF(I12=J12,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8857,7 +8848,7 @@
       <c r="B13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>270</v>
       </c>
       <c r="D13" s="0" t="str">
@@ -8868,29 +8859,29 @@
         <f aca="false">IF(H13="B","Kopf","Zahl")</f>
         <v>Kopf</v>
       </c>
-      <c r="F13" s="10" t="str">
+      <c r="F13" s="7" t="str">
         <f aca="false">IF(H13="A","KopfZahl","ZahlKopf")</f>
         <v>ZahlKopf</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="H13" s="7" t="str">
         <f aca="false">IF(G13=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I13" s="11" t="str">
+      <c r="I13" s="8" t="str">
         <f aca="false">IF(K13=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J13" s="11" t="str">
+      <c r="J13" s="8" t="str">
         <f aca="false">IF(K13=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="11" t="str">
+      <c r="L13" s="8" t="str">
         <f aca="false">IF(I13=J13,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8902,7 +8893,7 @@
       <c r="B14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>271</v>
       </c>
       <c r="D14" s="0" t="str">
@@ -8913,29 +8904,29 @@
         <f aca="false">IF(H14="B","Kopf","Zahl")</f>
         <v>Zahl</v>
       </c>
-      <c r="F14" s="10" t="str">
+      <c r="F14" s="7" t="str">
         <f aca="false">IF(H14="A","KopfZahl","ZahlKopf")</f>
         <v>KopfZahl</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="10" t="str">
+      <c r="H14" s="7" t="str">
         <f aca="false">IF(G14=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I14" s="11" t="str">
+      <c r="I14" s="8" t="str">
         <f aca="false">IF(K14=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J14" s="11" t="str">
+      <c r="J14" s="8" t="str">
         <f aca="false">IF(K14=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L14" s="11" t="str">
+      <c r="L14" s="8" t="str">
         <f aca="false">IF(I14=J14,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8947,7 +8938,7 @@
       <c r="B15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>272</v>
       </c>
       <c r="D15" s="0" t="str">
@@ -8958,29 +8949,29 @@
         <f aca="false">IF(H15="B","Kopf","Zahl")</f>
         <v>Kopf</v>
       </c>
-      <c r="F15" s="10" t="str">
+      <c r="F15" s="7" t="str">
         <f aca="false">IF(H15="A","KopfZahl","ZahlKopf")</f>
         <v>ZahlKopf</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="10" t="str">
+      <c r="H15" s="7" t="str">
         <f aca="false">IF(G15=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I15" s="11" t="str">
+      <c r="I15" s="8" t="str">
         <f aca="false">IF(K15=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J15" s="11" t="str">
+      <c r="J15" s="8" t="str">
         <f aca="false">IF(K15=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="11" t="str">
+      <c r="L15" s="8" t="str">
         <f aca="false">IF(I15=J15,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -8992,7 +8983,7 @@
       <c r="B16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>273</v>
       </c>
       <c r="D16" s="0" t="str">
@@ -9003,29 +8994,29 @@
         <f aca="false">IF(H16="B","Kopf","Zahl")</f>
         <v>Zahl</v>
       </c>
-      <c r="F16" s="10" t="str">
+      <c r="F16" s="7" t="str">
         <f aca="false">IF(H16="A","KopfZahl","ZahlKopf")</f>
         <v>KopfZahl</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="H16" s="7" t="str">
         <f aca="false">IF(G16=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I16" s="11" t="str">
+      <c r="I16" s="8" t="str">
         <f aca="false">IF(K16=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J16" s="11" t="str">
+      <c r="J16" s="8" t="str">
         <f aca="false">IF(K16=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="11" t="str">
+      <c r="L16" s="8" t="str">
         <f aca="false">IF(I16=J16,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -9037,7 +9028,7 @@
       <c r="B17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D17" s="0" t="str">
@@ -9048,29 +9039,29 @@
         <f aca="false">IF(H17="B","Kopf","Zahl")</f>
         <v>Kopf</v>
       </c>
-      <c r="F17" s="10" t="str">
+      <c r="F17" s="7" t="str">
         <f aca="false">IF(H17="A","KopfZahl","ZahlKopf")</f>
         <v>ZahlKopf</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="10" t="str">
+      <c r="H17" s="7" t="str">
         <f aca="false">IF(G17=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I17" s="11" t="str">
+      <c r="I17" s="8" t="str">
         <f aca="false">IF(K17=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J17" s="11" t="str">
+      <c r="J17" s="8" t="str">
         <f aca="false">IF(K17=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="11" t="str">
+      <c r="L17" s="8" t="str">
         <f aca="false">IF(I17=J17,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -9082,7 +9073,7 @@
       <c r="B18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>275</v>
       </c>
       <c r="D18" s="0" t="str">
@@ -9093,29 +9084,29 @@
         <f aca="false">IF(H18="B","Kopf","Zahl")</f>
         <v>Zahl</v>
       </c>
-      <c r="F18" s="10" t="str">
+      <c r="F18" s="7" t="str">
         <f aca="false">IF(H18="A","KopfZahl","ZahlKopf")</f>
         <v>KopfZahl</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="H18" s="7" t="str">
         <f aca="false">IF(G18=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I18" s="11" t="str">
+      <c r="I18" s="8" t="str">
         <f aca="false">IF(K18=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J18" s="11" t="str">
+      <c r="J18" s="8" t="str">
         <f aca="false">IF(K18=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="11" t="str">
+      <c r="L18" s="8" t="str">
         <f aca="false">IF(I18=J18,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -9127,7 +9118,7 @@
       <c r="B19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>276</v>
       </c>
       <c r="D19" s="0" t="str">
@@ -9138,29 +9129,29 @@
         <f aca="false">IF(H19="B","Kopf","Zahl")</f>
         <v>Zahl</v>
       </c>
-      <c r="F19" s="10" t="str">
+      <c r="F19" s="7" t="str">
         <f aca="false">IF(H19="A","KopfZahl","ZahlKopf")</f>
         <v>KopfZahl</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H19" s="10" t="str">
+      <c r="H19" s="7" t="str">
         <f aca="false">IF(G19=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I19" s="11" t="str">
+      <c r="I19" s="8" t="str">
         <f aca="false">IF(K19=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J19" s="11" t="str">
+      <c r="J19" s="8" t="str">
         <f aca="false">IF(K19=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L19" s="11" t="str">
+      <c r="L19" s="8" t="str">
         <f aca="false">IF(I19=J19,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -9172,7 +9163,7 @@
       <c r="B20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>277</v>
       </c>
       <c r="D20" s="0" t="str">
@@ -9183,29 +9174,29 @@
         <f aca="false">IF(H20="B","Kopf","Zahl")</f>
         <v>Zahl</v>
       </c>
-      <c r="F20" s="10" t="str">
+      <c r="F20" s="7" t="str">
         <f aca="false">IF(H20="A","KopfZahl","ZahlKopf")</f>
         <v>KopfZahl</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="10" t="str">
+      <c r="H20" s="7" t="str">
         <f aca="false">IF(G20=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I20" s="11" t="str">
+      <c r="I20" s="8" t="str">
         <f aca="false">IF(K20=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J20" s="11" t="str">
+      <c r="J20" s="8" t="str">
         <f aca="false">IF(K20=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L20" s="11" t="str">
+      <c r="L20" s="8" t="str">
         <f aca="false">IF(I20=J20,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -9217,7 +9208,7 @@
       <c r="B21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>278</v>
       </c>
       <c r="D21" s="0" t="str">
@@ -9228,29 +9219,29 @@
         <f aca="false">IF(H21="B","Kopf","Zahl")</f>
         <v>Kopf</v>
       </c>
-      <c r="F21" s="10" t="str">
+      <c r="F21" s="7" t="str">
         <f aca="false">IF(H21="A","KopfZahl","ZahlKopf")</f>
         <v>ZahlKopf</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="10" t="str">
+      <c r="H21" s="7" t="str">
         <f aca="false">IF(G21=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I21" s="11" t="str">
+      <c r="I21" s="8" t="str">
         <f aca="false">IF(K21=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J21" s="11" t="str">
+      <c r="J21" s="8" t="str">
         <f aca="false">IF(K21=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="11" t="str">
+      <c r="L21" s="8" t="str">
         <f aca="false">IF(I21=J21,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -9262,7 +9253,7 @@
       <c r="B22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>279</v>
       </c>
       <c r="D22" s="0" t="str">
@@ -9273,29 +9264,29 @@
         <f aca="false">IF(H22="B","Kopf","Zahl")</f>
         <v>Zahl</v>
       </c>
-      <c r="F22" s="10" t="str">
+      <c r="F22" s="7" t="str">
         <f aca="false">IF(H22="A","KopfZahl","ZahlKopf")</f>
         <v>KopfZahl</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="10" t="str">
+      <c r="H22" s="7" t="str">
         <f aca="false">IF(G22=1,"A","B")</f>
         <v>A</v>
       </c>
-      <c r="I22" s="11" t="str">
+      <c r="I22" s="8" t="str">
         <f aca="false">IF(K22=1,"Gr_1","Gr_2")</f>
         <v>Gr_2</v>
       </c>
-      <c r="J22" s="11" t="str">
+      <c r="J22" s="8" t="str">
         <f aca="false">IF(K22=1,"Gr_2","Gr_1")</f>
         <v>Gr_1</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L22" s="11" t="str">
+      <c r="L22" s="8" t="str">
         <f aca="false">IF(I22=J22,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -9307,7 +9298,7 @@
       <c r="B23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>280</v>
       </c>
       <c r="D23" s="0" t="str">
@@ -9318,29 +9309,29 @@
         <f aca="false">IF(H23="B","Kopf","Zahl")</f>
         <v>Kopf</v>
       </c>
-      <c r="F23" s="10" t="str">
+      <c r="F23" s="7" t="str">
         <f aca="false">IF(H23="A","KopfZahl","ZahlKopf")</f>
         <v>ZahlKopf</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="10" t="str">
+      <c r="H23" s="7" t="str">
         <f aca="false">IF(G23=1,"A","B")</f>
         <v>B</v>
       </c>
-      <c r="I23" s="11" t="str">
+      <c r="I23" s="8" t="str">
         <f aca="false">IF(K23=1,"Gr_1","Gr_2")</f>
         <v>Gr_1</v>
       </c>
-      <c r="J23" s="11" t="str">
+      <c r="J23" s="8" t="str">
         <f aca="false">IF(K23=1,"Gr_2","Gr_1")</f>
         <v>Gr_2</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="11" t="str">
+      <c r="L23" s="8" t="str">
         <f aca="false">IF(I23=J23,"error","correct")</f>
         <v>correct</v>
       </c>
@@ -9352,7 +9343,7 @@
       <c r="B24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>281</v>
       </c>
       <c r="D24" s="0" t="s">
@@ -9375,7 +9366,7 @@
       <c r="B25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>282</v>
       </c>
       <c r="D25" s="0" t="s">
@@ -9398,7 +9389,7 @@
       <c r="B26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>283</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -9421,7 +9412,7 @@
       <c r="B27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>284</v>
       </c>
       <c r="D27" s="0" t="s">
@@ -9444,7 +9435,7 @@
       <c r="B28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>285</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -9453,7 +9444,7 @@
       <c r="E28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="9" t="s">
         <v>63</v>
       </c>
       <c r="J28" s="0" t="s">
@@ -9467,7 +9458,7 @@
       <c r="B29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>286</v>
       </c>
       <c r="D29" s="0" t="s">
